--- a/medicine/Sexualité et sexologie/Injaculation/Injaculation.xlsx
+++ b/medicine/Sexualité et sexologie/Injaculation/Injaculation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'injaculation, est une technique, qui permettrait d’obtenir un orgasme masculin, sans éjaculation et sans période réfractaire. Pour cela il existe plusieurs techniques:
 Trouver un certain point, nommé point Jen-Mo ou point Hui Yin (périnée), situé entre l’anus et le scrotum, et y appliquer une compression durant l'orgasme.
-Contracter les muscles du périnée et aspirer l'énergie contenue dans le bassin par la méditation. Cette technique est décrite dans le sex-tao, ou kung-fu sexuel, une branche taoïste de la médecine traditionnelle chinoise[1].
-Correctement pratiquée, cette technique permet d’avoir un orgasme sans aucune émission externe de sperme[2]. Cela permettrait à un homme d’avoir des orgasmes multiples rapprochés, de les intensifier ainsi que leur durée et de ne pas provoquer de chute de testostérone suite à l'éjaculation, ce qui préserverait alors « l'énergie vitale masculine ». Une étude de Wibowo et al. sur les orgasmes multiples masculins appuie le fait que l'entraînement à avoir un orgasme sans éjaculation pourrait, parmi d'autres méthodes, amener l'homme à des orgasmes multiples[3].
+Contracter les muscles du périnée et aspirer l'énergie contenue dans le bassin par la méditation. Cette technique est décrite dans le sex-tao, ou kung-fu sexuel, une branche taoïste de la médecine traditionnelle chinoise.
+Correctement pratiquée, cette technique permet d’avoir un orgasme sans aucune émission externe de sperme. Cela permettrait à un homme d’avoir des orgasmes multiples rapprochés, de les intensifier ainsi que leur durée et de ne pas provoquer de chute de testostérone suite à l'éjaculation, ce qui préserverait alors « l'énergie vitale masculine ». Une étude de Wibowo et al. sur les orgasmes multiples masculins appuie le fait que l'entraînement à avoir un orgasme sans éjaculation pourrait, parmi d'autres méthodes, amener l'homme à des orgasmes multiples.
 Fonctionnellement, l'injaculation consiste à empêcher la contraction des muscles striés du périnée pendant la 2e phase de l'éjaculation. Le sperme reste dans une portion intermédiaire de son trajet, au niveau de l'ampoule du canal déférent. 
-Il ne faut pas confondre l'injaculation avec l'éjaculation rétrograde, une forme d'anéjaculation qui peut avoir lieu s'il existe une défaillance au niveau du col de la vessie. En effet, le sperme, au moment de la mise en pression, est expulsé non pas vers l’urètre mais vers la vessie. Il en résulte une absence d’écoulement de sperme au niveau du méat urétral faisant évoquer le diagnostic d’anéjaculation. Le sperme se dilue dans les urines et est éliminé lors de la miction suivante[4].
+Il ne faut pas confondre l'injaculation avec l'éjaculation rétrograde, une forme d'anéjaculation qui peut avoir lieu s'il existe une défaillance au niveau du col de la vessie. En effet, le sperme, au moment de la mise en pression, est expulsé non pas vers l’urètre mais vers la vessie. Il en résulte une absence d’écoulement de sperme au niveau du méat urétral faisant évoquer le diagnostic d’anéjaculation. Le sperme se dilue dans les urines et est éliminé lors de la miction suivante.
 À noter que la stagnation des spermatozoïdes peut entraîner la sécrétion de facteurs pro-nécrotiques voire l'apparition de phénomènes de spermiophagie active.
 </t>
         </is>
